--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wings/Documents/我的文档/我的项目/骑士在途/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/knight/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="99">
   <si>
     <t>骑士在途项目数据库表说明</t>
     <rPh sb="0" eb="1">
@@ -434,6 +434,327 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>shou ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edittime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <rPh sb="0" eb="1">
+      <t>xiu gai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <rPh sb="0" eb="1">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kn_club</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部id</t>
+    <rPh sb="0" eb="1">
+      <t>ju le bu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locationx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置x</t>
+    <rPh sb="0" eb="1">
+      <t>wei zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>locationy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置y</t>
+    <rPh sb="0" eb="1">
+      <t>wei zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kn_clubmember</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clubid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部成员id</t>
+    <rPh sb="0" eb="1">
+      <t>ju le bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kn_activity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者id</t>
+    <rPh sb="0" eb="1">
+      <t>chuang jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhe</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动标题</t>
+    <rPh sb="0" eb="1">
+      <t>huo dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动内容</t>
+    <rPh sb="0" eb="1">
+      <t>huo dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei rong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>starttime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动开始时间</t>
+    <rPh sb="0" eb="1">
+      <t>huo dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kn_moment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片1</t>
+    <rPh sb="0" eb="1">
+      <t>tu pian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片2</t>
+    <rPh sb="0" eb="1">
+      <t>tu pian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片3</t>
+    <rPh sb="0" eb="1">
+      <t>tu pian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片4</t>
+    <rPh sb="0" eb="1">
+      <t>tu pian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kn_comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友圈id</t>
+    <rPh sb="0" eb="1">
+      <t>peng you q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>replayid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论者id</t>
+    <rPh sb="0" eb="1">
+      <t>ping lun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一条记录时，根据自增的id计算得出：md5('club' + id)</t>
+    <rPh sb="0" eb="1">
+      <t>xin zeng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi tiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ji l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi zeng</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ji suan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kn_moment.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复人id，可以为空</t>
+    <rPh sb="0" eb="1">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei kong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论内容</t>
+    <rPh sb="0" eb="1">
+      <t>ping lun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei rong</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -807,15 +1128,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
@@ -1010,6 +1331,32 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>1</v>
@@ -1093,6 +1440,643 @@
       <c r="E25" s="2" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/数据库设计.xlsx
+++ b/doc/数据库设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="107">
   <si>
     <t>骑士在途项目数据库表说明</t>
     <rPh sb="0" eb="1">
@@ -756,6 +756,53 @@
     <rPh sb="2" eb="3">
       <t>nei rong</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kn_token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>token值</t>
+    <rPh sb="5" eb="6">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆用户id</t>
+    <rPh sb="0" eb="1">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yong hu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expiredtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间</t>
+    <rPh sb="0" eb="1">
+      <t>chao shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -851,6 +898,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1128,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1357,7 +1405,9 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
@@ -1366,16 +1416,16 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1392,27 +1442,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -1420,100 +1470,78 @@
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>39</v>
+        <v>104</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>12</v>
@@ -1521,215 +1549,217 @@
       <c r="D33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="A37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>12</v>
@@ -1741,342 +1771,441 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="A57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="2" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
